--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3553.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3553.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.502974541336235</v>
+        <v>0.8279455900192261</v>
       </c>
       <c r="B1">
-        <v>1.626729980424543</v>
+        <v>1.051031470298767</v>
       </c>
       <c r="C1">
-        <v>1.89299173978625</v>
+        <v>1.550809502601624</v>
       </c>
       <c r="D1">
-        <v>3.163607380514482</v>
+        <v>2.265527963638306</v>
       </c>
       <c r="E1">
-        <v>4.097988728028007</v>
+        <v>1.694389820098877</v>
       </c>
     </row>
   </sheetData>
